--- a/Document/SWP391-AppDevProject_Backlog Template.xlsx
+++ b/Document/SWP391-AppDevProject_Backlog Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiennt/FeStore/MyDrive/MyWorks/FU/SWP391-Project/Guides_Student/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{580DCB48-9878-4194-822C-87E2A8CC0BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C531B79F-275B-4DC0-9ADC-262A8B4562A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1580" yWindow="2000" windowWidth="26840" windowHeight="14880" xr2:uid="{DF743DC6-3E10-FC40-A74C-7ADFA9B03788}"/>
   </bookViews>
@@ -111,64 +111,64 @@
     <t>Iteration 3</t>
   </si>
   <si>
+    <t>SE150938, SE151394</t>
+  </si>
+  <si>
+    <t>Phạm Đức Nghĩa, Nguyễn Văn Duy</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>user can search product (by filter)</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>SE150787</t>
+  </si>
+  <si>
+    <t>Đỗ Việt Hoàng</t>
+  </si>
+  <si>
+    <t>Buy product</t>
+  </si>
+  <si>
+    <t>user can buy product that they want</t>
+  </si>
+  <si>
+    <t>SE151397, SE150787</t>
+  </si>
+  <si>
+    <t>Hoàng Quốc Dũng, Đỗ Việt Hoàng</t>
+  </si>
+  <si>
+    <t>Pay by Banking</t>
+  </si>
+  <si>
+    <t>user can choose their payment method that they want</t>
+  </si>
+  <si>
     <t>SE151394</t>
   </si>
   <si>
     <t>Nguyễn Văn Duy</t>
   </si>
   <si>
-    <t>Search</t>
-  </si>
-  <si>
-    <t>user can search product (by filter)</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>SE150787</t>
-  </si>
-  <si>
-    <t>Đỗ Việt Hoàng</t>
-  </si>
-  <si>
-    <t>Buy product</t>
-  </si>
-  <si>
-    <t>user can buy product that they want</t>
-  </si>
-  <si>
-    <t>SE151397</t>
-  </si>
-  <si>
-    <t>Hoàng Quốc Dũng</t>
-  </si>
-  <si>
-    <t>Pay by Banking</t>
-  </si>
-  <si>
-    <t>user can choose their payment method that they want</t>
-  </si>
-  <si>
-    <t>SE150943</t>
-  </si>
-  <si>
     <t>CRUD</t>
   </si>
   <si>
     <t>admin can "create", " view", "update", "delete" products</t>
   </si>
   <si>
-    <t>SE150944</t>
-  </si>
-  <si>
     <t>Send mess</t>
   </si>
   <si>
     <t>send message OTP into their phone number to reset password</t>
   </si>
   <si>
-    <t>SE150945</t>
+    <t>SE150787, SE151397</t>
   </si>
 </sst>
 </file>
@@ -756,7 +756,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -956,7 +956,7 @@
         <v>37</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>23</v>
@@ -964,10 +964,10 @@
     </row>
     <row r="15" spans="1:7" ht="27.75" customHeight="1">
       <c r="A15" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>28</v>
@@ -976,16 +976,16 @@
         <v>12</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30.75" customHeight="1">
+    <row r="16" spans="1:7" ht="63.75" customHeight="1">
       <c r="A16" s="11" t="s">
         <v>41</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>43</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>23</v>

--- a/Document/SWP391-AppDevProject_Backlog Template.xlsx
+++ b/Document/SWP391-AppDevProject_Backlog Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiennt/FeStore/MyDrive/MyWorks/FU/SWP391-Project/Guides_Student/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C531B79F-275B-4DC0-9ADC-262A8B4562A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{10DB84FF-4A72-45EC-8AAA-1F8F9BEEA3AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1580" yWindow="2000" windowWidth="26840" windowHeight="14880" xr2:uid="{DF743DC6-3E10-FC40-A74C-7ADFA9B03788}"/>
   </bookViews>
@@ -72,82 +72,82 @@
     <t>user and admin login into app by account or google</t>
   </si>
   <si>
+    <t>Simple</t>
+  </si>
+  <si>
+    <t>Iteration 1</t>
+  </si>
+  <si>
+    <t>SE150938</t>
+  </si>
+  <si>
+    <t>Phạm Đức Nghĩa</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>user and admin logout app</t>
+  </si>
+  <si>
+    <t>Iteration 2</t>
+  </si>
+  <si>
+    <t>SE151173</t>
+  </si>
+  <si>
+    <t>Nguyễn Đức Hải Văn</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>user can sign-up the account</t>
+  </si>
+  <si>
+    <t>Iteration 3</t>
+  </si>
+  <si>
+    <t>SE150938, SE151394</t>
+  </si>
+  <si>
+    <t>Phạm Đức Nghĩa, Nguyễn Văn Duy</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>user can search product (by filter)</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>SE150787</t>
+  </si>
+  <si>
+    <t>Đỗ Việt Hoàng</t>
+  </si>
+  <si>
+    <t>Buy product</t>
+  </si>
+  <si>
+    <t>user can buy product that they want</t>
+  </si>
+  <si>
+    <t>SE151397, SE150787</t>
+  </si>
+  <si>
+    <t>Hoàng Quốc Dũng, Đỗ Việt Hoàng</t>
+  </si>
+  <si>
+    <t>Pay by Banking</t>
+  </si>
+  <si>
+    <t>user can choose their payment method that they want</t>
+  </si>
+  <si>
     <t>Complex</t>
-  </si>
-  <si>
-    <t>Iteration 1</t>
-  </si>
-  <si>
-    <t>SE150938</t>
-  </si>
-  <si>
-    <t>Phạm Đức Nghĩa</t>
-  </si>
-  <si>
-    <t>Logout</t>
-  </si>
-  <si>
-    <t>user and admin logout app</t>
-  </si>
-  <si>
-    <t>Simple</t>
-  </si>
-  <si>
-    <t>Iteration 2</t>
-  </si>
-  <si>
-    <t>SE151173</t>
-  </si>
-  <si>
-    <t>Nguyễn Đức Hải Văn</t>
-  </si>
-  <si>
-    <t>Register</t>
-  </si>
-  <si>
-    <t>user can sign-up the account</t>
-  </si>
-  <si>
-    <t>Iteration 3</t>
-  </si>
-  <si>
-    <t>SE150938, SE151394</t>
-  </si>
-  <si>
-    <t>Phạm Đức Nghĩa, Nguyễn Văn Duy</t>
-  </si>
-  <si>
-    <t>Search</t>
-  </si>
-  <si>
-    <t>user can search product (by filter)</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>SE150787</t>
-  </si>
-  <si>
-    <t>Đỗ Việt Hoàng</t>
-  </si>
-  <si>
-    <t>Buy product</t>
-  </si>
-  <si>
-    <t>user can buy product that they want</t>
-  </si>
-  <si>
-    <t>SE151397, SE150787</t>
-  </si>
-  <si>
-    <t>Hoàng Quốc Dũng, Đỗ Việt Hoàng</t>
-  </si>
-  <si>
-    <t>Pay by Banking</t>
-  </si>
-  <si>
-    <t>user can choose their payment method that they want</t>
   </si>
   <si>
     <t>SE151394</t>
@@ -755,8 +755,8 @@
   </sheetPr>
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -855,62 +855,62 @@
         <v>16</v>
       </c>
       <c r="C10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="E10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="F10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>20</v>
-      </c>
       <c r="G10" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="37.5" customHeight="1">
       <c r="A11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>21</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>22</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="F11" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="12" t="s">
-        <v>25</v>
-      </c>
       <c r="G11" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="32.25" customHeight="1">
       <c r="A12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="C12" s="12" t="s">
         <v>27</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>28</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="12" t="s">
         <v>29</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>30</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>12</v>
@@ -918,39 +918,39 @@
     </row>
     <row r="13" spans="1:7" ht="36" customHeight="1">
       <c r="A13" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="C13" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="12" t="s">
+      <c r="F13" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="12" t="s">
-        <v>34</v>
-      </c>
       <c r="G13" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="32.25" customHeight="1">
       <c r="A14" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="C14" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>11</v>
-      </c>
       <c r="D14" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>37</v>
@@ -959,7 +959,7 @@
         <v>38</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="27.75" customHeight="1">
@@ -970,16 +970,16 @@
         <v>40</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="12" t="s">
         <v>19</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>20</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>12</v>
@@ -993,19 +993,19 @@
         <v>42</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>43</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:7">

--- a/Document/SWP391-AppDevProject_Backlog Template.xlsx
+++ b/Document/SWP391-AppDevProject_Backlog Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiennt/FeStore/MyDrive/MyWorks/FU/SWP391-Project/Guides_Student/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10DB84FF-4A72-45EC-8AAA-1F8F9BEEA3AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{27C40A0F-0B0D-4D6F-96F7-12B948D5DFEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1580" yWindow="2000" windowWidth="26840" windowHeight="14880" xr2:uid="{DF743DC6-3E10-FC40-A74C-7ADFA9B03788}"/>
   </bookViews>

--- a/Document/SWP391-AppDevProject_Backlog Template.xlsx
+++ b/Document/SWP391-AppDevProject_Backlog Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25718"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiennt/FeStore/MyDrive/MyWorks/FU/SWP391-Project/Guides_Student/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27C40A0F-0B0D-4D6F-96F7-12B948D5DFEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D71A4321-1AC6-49F8-8A11-B2F341FC7424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1580" yWindow="2000" windowWidth="26840" windowHeight="14880" xr2:uid="{DF743DC6-3E10-FC40-A74C-7ADFA9B03788}"/>
   </bookViews>

--- a/Document/SWP391-AppDevProject_Backlog Template.xlsx
+++ b/Document/SWP391-AppDevProject_Backlog Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25718"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiennt/FeStore/MyDrive/MyWorks/FU/SWP391-Project/Guides_Student/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27C40A0F-0B0D-4D6F-96F7-12B948D5DFEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C171BCC2-68F6-46B3-80A8-AAC0AE72B003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1580" yWindow="2000" windowWidth="26840" windowHeight="14880" xr2:uid="{DF743DC6-3E10-FC40-A74C-7ADFA9B03788}"/>
   </bookViews>

--- a/Document/SWP391-AppDevProject_Backlog Template.xlsx
+++ b/Document/SWP391-AppDevProject_Backlog Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiennt/FeStore/MyDrive/MyWorks/FU/SWP391-Project/Guides_Student/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D71A4321-1AC6-49F8-8A11-B2F341FC7424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C171BCC2-68F6-46B3-80A8-AAC0AE72B003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1580" yWindow="2000" windowWidth="26840" windowHeight="14880" xr2:uid="{DF743DC6-3E10-FC40-A74C-7ADFA9B03788}"/>
   </bookViews>
